--- a/data/er_ans_costs.xlsx
+++ b/data/er_ans_costs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oburdash\dev\repos\standard_inputs\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7479951A-1542-4459-A9CB-47FD4CBD95F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C266126F-0D5A-46EA-BBF4-24DFA8A5B5D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="coding" sheetId="3" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Ed 9.0" sheetId="1" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="_ftn1" localSheetId="0">coding!$A$13</definedName>
     <definedName name="_ftn2" localSheetId="0">coding!$E$18</definedName>
     <definedName name="_ftn2" localSheetId="1">'Ed 10'!$C$18</definedName>
     <definedName name="_ftn2" localSheetId="2">'Ed 9.0'!$C$18</definedName>
@@ -386,16 +387,16 @@
     <t>y2020</t>
   </si>
   <si>
-    <t>SES states (EU27+3)</t>
-  </si>
-  <si>
     <t>Total en-route ANS costs</t>
   </si>
   <si>
-    <t>Total en-route service units (million TSU)</t>
-  </si>
-  <si>
-    <t>Total en-route ANS costs per TSU</t>
+    <t>SES States (EU27+2)</t>
+  </si>
+  <si>
+    <t>Total en-route service units (million TSUs)</t>
+  </si>
+  <si>
+    <t>En-route ANS costs per TSU</t>
   </si>
 </sst>
 </file>
@@ -406,7 +407,7 @@
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -526,6 +527,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -677,7 +684,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -817,7 +824,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -836,6 +842,17 @@
     <xf numFmtId="0" fontId="12" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1131,27 +1148,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EADF492-4772-4959-918C-B6C0CE850AF7}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.28515625" style="48" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.33203125" style="48" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" style="48" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" style="48" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" style="48" customWidth="1"/>
     <col min="4" max="7" width="11" style="48" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="5.5703125" style="48" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="5.5546875" style="48" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="5" style="48" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.5703125" style="48" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.5546875" style="48" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="6" style="48" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="48"/>
+    <col min="15" max="16384" width="9.109375" style="48"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="48" t="s">
+    <row r="1" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
         <v>50</v>
       </c>
       <c r="B1" s="48" t="s">
@@ -1173,212 +1190,319 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="48" t="s">
+    <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="59" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="58">
+        <v>6225</v>
+      </c>
+      <c r="C2" s="58">
+        <v>6201</v>
+      </c>
+      <c r="D2" s="58">
+        <v>6167</v>
+      </c>
+      <c r="E2" s="58">
+        <v>6235</v>
+      </c>
+      <c r="F2" s="58">
+        <v>6307</v>
+      </c>
+      <c r="G2" s="58">
+        <v>6136</v>
+      </c>
+      <c r="H2" s="58"/>
+    </row>
+    <row r="3" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="59" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="58">
+        <v>1247</v>
+      </c>
+      <c r="C3" s="58">
+        <v>1287</v>
+      </c>
+      <c r="D3" s="58">
+        <v>1282</v>
+      </c>
+      <c r="E3" s="58">
+        <v>1348</v>
+      </c>
+      <c r="F3" s="58">
+        <v>1380</v>
+      </c>
+      <c r="G3" s="58">
+        <v>1412</v>
+      </c>
+      <c r="H3" s="58"/>
+    </row>
+    <row r="4" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="49">
-        <v>6225</v>
-      </c>
-      <c r="C2" s="49">
-        <v>6201</v>
-      </c>
-      <c r="D2" s="49">
-        <v>6167</v>
-      </c>
-      <c r="E2" s="49">
-        <v>6235</v>
-      </c>
-      <c r="F2" s="49">
-        <v>6307</v>
-      </c>
-      <c r="G2" s="49">
-        <v>6136</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="48" t="s">
+      <c r="B4" s="58">
+        <v>7472</v>
+      </c>
+      <c r="C4" s="58">
+        <v>7488</v>
+      </c>
+      <c r="D4" s="58">
+        <v>7449</v>
+      </c>
+      <c r="E4" s="58">
+        <v>7583</v>
+      </c>
+      <c r="F4" s="58">
+        <v>7687</v>
+      </c>
+      <c r="G4" s="58">
+        <v>7548</v>
+      </c>
+      <c r="H4" s="58"/>
+    </row>
+    <row r="5" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="58">
+        <v>105</v>
+      </c>
+      <c r="C5" s="58">
+        <v>109</v>
+      </c>
+      <c r="D5" s="58">
+        <v>115</v>
+      </c>
+      <c r="E5" s="58">
+        <v>122</v>
+      </c>
+      <c r="F5" s="58">
+        <v>125</v>
+      </c>
+      <c r="G5" s="58">
+        <v>53</v>
+      </c>
+      <c r="H5" s="58"/>
+    </row>
+    <row r="6" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="49">
-        <v>1247</v>
-      </c>
-      <c r="C3" s="49">
-        <v>1287</v>
-      </c>
-      <c r="D3" s="49">
-        <v>1282</v>
-      </c>
-      <c r="E3" s="49">
-        <v>1348</v>
-      </c>
-      <c r="F3" s="49">
-        <v>1380</v>
-      </c>
-      <c r="G3" s="49">
-        <v>1412</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="48" t="s">
+      <c r="B6" s="58">
+        <v>29</v>
+      </c>
+      <c r="C6" s="58">
+        <v>30</v>
+      </c>
+      <c r="D6" s="58">
+        <v>33</v>
+      </c>
+      <c r="E6" s="58">
+        <v>35</v>
+      </c>
+      <c r="F6" s="58">
+        <v>36</v>
+      </c>
+      <c r="G6" s="58">
+        <v>16</v>
+      </c>
+      <c r="H6" s="58"/>
+    </row>
+    <row r="7" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="58">
+        <v>134</v>
+      </c>
+      <c r="C7" s="58">
+        <v>139</v>
+      </c>
+      <c r="D7" s="58">
+        <v>148</v>
+      </c>
+      <c r="E7" s="58">
+        <v>157</v>
+      </c>
+      <c r="F7" s="58">
+        <v>161</v>
+      </c>
+      <c r="G7" s="58">
+        <v>68</v>
+      </c>
+      <c r="H7" s="58"/>
+    </row>
+    <row r="8" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="49">
-        <v>7472</v>
-      </c>
-      <c r="C4" s="49">
-        <v>7488</v>
-      </c>
-      <c r="D4" s="49">
-        <v>7449</v>
-      </c>
-      <c r="E4" s="49">
-        <v>7583</v>
-      </c>
-      <c r="F4" s="49">
-        <v>7687</v>
-      </c>
-      <c r="G4" s="49">
-        <v>7548</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="48" t="s">
-        <v>57</v>
-      </c>
-      <c r="B5" s="49">
-        <v>105</v>
-      </c>
-      <c r="C5" s="49">
-        <v>109</v>
-      </c>
-      <c r="D5" s="49">
-        <v>115</v>
-      </c>
-      <c r="E5" s="49">
-        <v>122</v>
-      </c>
-      <c r="F5" s="49">
-        <v>125</v>
-      </c>
-      <c r="G5" s="49">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="48" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="49">
-        <v>29</v>
-      </c>
-      <c r="C6" s="49">
-        <v>30</v>
-      </c>
-      <c r="D6" s="49">
-        <v>33</v>
-      </c>
-      <c r="E6" s="49">
-        <v>35</v>
-      </c>
-      <c r="F6" s="49">
-        <v>36</v>
-      </c>
-      <c r="G6" s="49">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="48" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="49">
-        <v>134</v>
-      </c>
-      <c r="C7" s="49">
-        <v>139</v>
-      </c>
-      <c r="D7" s="49">
-        <v>148</v>
-      </c>
-      <c r="E7" s="49">
-        <v>157</v>
-      </c>
-      <c r="F7" s="49">
-        <v>161</v>
-      </c>
-      <c r="G7" s="49">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="48" t="s">
-        <v>57</v>
-      </c>
-      <c r="B8" s="49">
+      <c r="B8" s="58">
         <v>59.4</v>
       </c>
-      <c r="C8" s="49">
+      <c r="C8" s="58">
         <v>56.8</v>
       </c>
-      <c r="D8" s="49">
+      <c r="D8" s="58">
         <v>53.6</v>
       </c>
-      <c r="E8" s="49">
+      <c r="E8" s="58">
         <v>51.2</v>
       </c>
-      <c r="F8" s="49">
+      <c r="F8" s="58">
         <v>50.4</v>
       </c>
-      <c r="G8" s="49">
+      <c r="G8" s="58">
         <v>116.9</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="48" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="49">
+      <c r="H8" s="58"/>
+    </row>
+    <row r="9" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="58">
         <v>43.1</v>
       </c>
-      <c r="C9" s="49">
+      <c r="C9" s="58">
         <v>43</v>
       </c>
-      <c r="D9" s="49">
+      <c r="D9" s="58">
         <v>39.200000000000003</v>
       </c>
-      <c r="E9" s="49">
+      <c r="E9" s="58">
         <v>38.299999999999997</v>
       </c>
-      <c r="F9" s="49">
+      <c r="F9" s="58">
         <v>38</v>
       </c>
-      <c r="G9" s="49">
+      <c r="G9" s="58">
         <v>89.5</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="48" t="s">
+      <c r="H9" s="58"/>
+    </row>
+    <row r="10" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>60</v>
       </c>
-      <c r="B10" s="49">
-        <v>102.5</v>
-      </c>
-      <c r="C10" s="49">
-        <v>99.8</v>
-      </c>
-      <c r="D10" s="49">
-        <v>92.800000000000011</v>
-      </c>
-      <c r="E10" s="49">
-        <v>89.5</v>
-      </c>
-      <c r="F10" s="49">
-        <v>88.4</v>
-      </c>
-      <c r="G10" s="49">
-        <v>206.4</v>
-      </c>
+      <c r="B10" s="58">
+        <v>55.9</v>
+      </c>
+      <c r="C10" s="58">
+        <v>53.8</v>
+      </c>
+      <c r="D10" s="58">
+        <v>50.4</v>
+      </c>
+      <c r="E10" s="58">
+        <v>48.3</v>
+      </c>
+      <c r="F10" s="58">
+        <v>47.6</v>
+      </c>
+      <c r="G10" s="58">
+        <v>110.6</v>
+      </c>
+      <c r="H10" s="58"/>
+    </row>
+    <row r="11" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A11"/>
+      <c r="B11" s="58"/>
+      <c r="C11" s="58"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="58"/>
+      <c r="F11" s="58"/>
+      <c r="G11" s="58"/>
+      <c r="H11" s="58"/>
+    </row>
+    <row r="12" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A12"/>
+      <c r="B12" s="58"/>
+      <c r="C12" s="58"/>
+      <c r="D12" s="58"/>
+      <c r="E12" s="58"/>
+      <c r="F12" s="58"/>
+      <c r="G12" s="58"/>
+      <c r="H12" s="58"/>
+    </row>
+    <row r="13" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A13" s="2"/>
+      <c r="B13" s="56"/>
+      <c r="C13"/>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13"/>
+    </row>
+    <row r="14" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A14" s="2"/>
+      <c r="B14" s="57"/>
+      <c r="C14"/>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14"/>
+      <c r="G14"/>
+    </row>
+    <row r="15" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A15" s="55"/>
+      <c r="B15" s="57"/>
+      <c r="C15"/>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15"/>
+      <c r="G15"/>
+    </row>
+    <row r="16" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A16" s="55"/>
+      <c r="B16" s="55"/>
+      <c r="C16"/>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16"/>
+      <c r="G16"/>
+    </row>
+    <row r="17" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A17" s="55"/>
+      <c r="B17" s="55"/>
+      <c r="C17"/>
+      <c r="D17"/>
+      <c r="E17"/>
+      <c r="F17"/>
+      <c r="G17"/>
+    </row>
+    <row r="18" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A18" s="55"/>
+      <c r="B18" s="55"/>
+      <c r="C18"/>
+      <c r="D18"/>
+      <c r="E18"/>
+      <c r="F18"/>
+      <c r="G18"/>
+    </row>
+    <row r="19" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B19" s="55"/>
+      <c r="C19"/>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19"/>
+      <c r="G19"/>
+    </row>
+    <row r="20" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B20" s="55"/>
+      <c r="C20"/>
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="F20"/>
+      <c r="G20"/>
+    </row>
+    <row r="21" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B21" s="55"/>
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21"/>
+      <c r="G21"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
@@ -1395,20 +1519,20 @@
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="6" customWidth="1"/>
-    <col min="3" max="3" width="26.7109375" customWidth="1"/>
-    <col min="4" max="11" width="6.7109375" customWidth="1"/>
+    <col min="3" max="3" width="26.6640625" customWidth="1"/>
+    <col min="4" max="11" width="6.6640625" customWidth="1"/>
     <col min="12" max="12" width="47" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:14" x14ac:dyDescent="0.3">
       <c r="D2" s="39" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D3" s="40" t="s">
         <v>46</v>
       </c>
@@ -1416,49 +1540,49 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="50">
+    <row r="4" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="49">
         <v>2015</v>
       </c>
-      <c r="G4" s="50">
+      <c r="G4" s="49">
         <v>2016</v>
       </c>
-      <c r="H4" s="50">
+      <c r="H4" s="49">
         <v>2017</v>
       </c>
-      <c r="I4" s="50">
+      <c r="I4" s="49">
         <v>2018</v>
       </c>
-      <c r="J4" s="54">
+      <c r="J4" s="53">
         <v>2019</v>
       </c>
-      <c r="K4" s="54">
+      <c r="K4" s="53">
         <v>2020</v>
       </c>
-      <c r="L4" s="54" t="s">
+      <c r="L4" s="53" t="s">
         <v>49</v>
       </c>
-      <c r="M4" s="52"/>
-      <c r="N4" s="52"/>
-    </row>
-    <row r="5" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="55"/>
-      <c r="K5" s="55"/>
-      <c r="L5" s="55"/>
-      <c r="M5" s="53"/>
-      <c r="N5" s="53"/>
-    </row>
-    <row r="6" spans="3:14" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="M4" s="51"/>
+      <c r="N4" s="51"/>
+    </row>
+    <row r="5" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="54"/>
+      <c r="K5" s="54"/>
+      <c r="L5" s="54"/>
+      <c r="M5" s="52"/>
+      <c r="N5" s="52"/>
+    </row>
+    <row r="6" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C6" s="13" t="s">
         <v>2</v>
       </c>
@@ -1492,7 +1616,7 @@
       <c r="M6" s="16"/>
       <c r="N6" s="16"/>
     </row>
-    <row r="7" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C7" s="17" t="s">
         <v>48</v>
       </c>
@@ -1520,7 +1644,7 @@
       <c r="M7" s="20"/>
       <c r="N7" s="20"/>
     </row>
-    <row r="8" spans="3:14" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:14" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="C8" s="21" t="s">
         <v>47</v>
       </c>
@@ -1548,7 +1672,7 @@
       <c r="M8" s="24"/>
       <c r="N8" s="24"/>
     </row>
-    <row r="9" spans="3:14" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:14" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="C9" s="25" t="s">
         <v>17</v>
       </c>
@@ -1582,7 +1706,7 @@
       <c r="M9" s="27"/>
       <c r="N9" s="27"/>
     </row>
-    <row r="10" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C10" s="28" t="s">
         <v>9</v>
       </c>
@@ -1610,7 +1734,7 @@
       <c r="M10" s="30"/>
       <c r="N10" s="30"/>
     </row>
-    <row r="11" spans="3:14" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:14" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="C11" s="31" t="s">
         <v>16</v>
       </c>
@@ -1638,7 +1762,7 @@
       <c r="M11" s="33"/>
       <c r="N11" s="33"/>
     </row>
-    <row r="12" spans="3:14" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:14" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="C12" s="13" t="s">
         <v>18</v>
       </c>
@@ -1672,7 +1796,7 @@
       <c r="M12" s="16"/>
       <c r="N12" s="16"/>
     </row>
-    <row r="13" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C13" s="17" t="s">
         <v>9</v>
       </c>
@@ -1700,7 +1824,7 @@
       <c r="M13" s="20"/>
       <c r="N13" s="20"/>
     </row>
-    <row r="14" spans="3:14" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:14" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C14" s="34" t="s">
         <v>16</v>
       </c>
@@ -1730,18 +1854,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="K4:K5"/>
     <mergeCell ref="L4:L5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1757,52 +1881,52 @@
       <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="26.7109375" customWidth="1"/>
-    <col min="4" max="11" width="6.7109375" customWidth="1"/>
+    <col min="3" max="3" width="26.6640625" customWidth="1"/>
+    <col min="4" max="11" width="6.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C4" s="52"/>
-      <c r="D4" s="52">
+    <row r="3" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C4" s="51"/>
+      <c r="D4" s="51">
         <v>2013</v>
       </c>
-      <c r="E4" s="52">
+      <c r="E4" s="51">
         <v>2014</v>
       </c>
-      <c r="F4" s="52">
+      <c r="F4" s="51">
         <v>2015</v>
       </c>
-      <c r="G4" s="52">
+      <c r="G4" s="51">
         <v>2016</v>
       </c>
-      <c r="H4" s="52">
+      <c r="H4" s="51">
         <v>2017</v>
       </c>
-      <c r="I4" s="52">
+      <c r="I4" s="51">
         <v>2018</v>
       </c>
-      <c r="J4" s="52" t="s">
+      <c r="J4" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="K4" s="52" t="s">
+      <c r="K4" s="51" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="53"/>
-      <c r="I5" s="53"/>
-      <c r="J5" s="53"/>
-      <c r="K5" s="53"/>
-    </row>
-    <row r="6" spans="3:11" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="52"/>
+      <c r="K5" s="52"/>
+    </row>
+    <row r="6" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C6" s="13" t="s">
         <v>2</v>
       </c>
@@ -1831,7 +1955,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="7" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C7" s="17" t="s">
         <v>9</v>
       </c>
@@ -1860,7 +1984,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="8" spans="3:11" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="C8" s="21" t="s">
         <v>16</v>
       </c>
@@ -1889,7 +2013,7 @@
         <v>7.3999999999999996E-2</v>
       </c>
     </row>
-    <row r="9" spans="3:11" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="C9" s="25" t="s">
         <v>17</v>
       </c>
@@ -1918,7 +2042,7 @@
         <v>5.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="10" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C10" s="28" t="s">
         <v>9</v>
       </c>
@@ -1947,7 +2071,7 @@
         <v>4.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="11" spans="3:11" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="C11" s="31" t="s">
         <v>16</v>
       </c>
@@ -1976,7 +2100,7 @@
         <v>9.7000000000000003E-2</v>
       </c>
     </row>
-    <row r="12" spans="3:11" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="C12" s="13" t="s">
         <v>18</v>
       </c>
@@ -2005,7 +2129,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C13" s="17" t="s">
         <v>9</v>
       </c>
@@ -2034,7 +2158,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="3:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:11" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C14" s="34" t="s">
         <v>16</v>
       </c>
@@ -2063,17 +2187,17 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C17" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C18" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:11" x14ac:dyDescent="0.3">
       <c r="D20" s="3" t="s">
         <v>26</v>
       </c>
@@ -2099,7 +2223,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:11" x14ac:dyDescent="0.3">
       <c r="D21" s="5" t="s">
         <v>32</v>
       </c>
@@ -2125,7 +2249,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:11" x14ac:dyDescent="0.3">
       <c r="D22" s="7">
         <v>388</v>
       </c>
@@ -2151,7 +2275,7 @@
         <v>7.3999999999999996E-2</v>
       </c>
     </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:11" x14ac:dyDescent="0.3">
       <c r="D23" s="8">
         <v>121</v>
       </c>
@@ -2177,7 +2301,7 @@
         <v>5.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:11" x14ac:dyDescent="0.3">
       <c r="D24" s="7">
         <v>107</v>
       </c>
@@ -2203,7 +2327,7 @@
         <v>4.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:11" x14ac:dyDescent="0.3">
       <c r="D25" s="7">
         <v>14</v>
       </c>
@@ -2229,7 +2353,7 @@
         <v>9.7000000000000003E-2</v>
       </c>
     </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:11" x14ac:dyDescent="0.3">
       <c r="D26" s="10">
         <v>60</v>
       </c>
@@ -2255,7 +2379,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:11" x14ac:dyDescent="0.3">
       <c r="D27" s="9">
         <v>64.2</v>
       </c>
@@ -2281,7 +2405,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:11" x14ac:dyDescent="0.3">
       <c r="D28" s="9">
         <v>27.8</v>
       </c>
@@ -2328,6 +2452,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="841a37d2-6ac6-4cb8-8211-c8824e7b4dcd">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="c78a888a-83d8-49bb-8890-6eb97e8a3c0e" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100763DCA751E988E49B18D7A5F3E2E0A59" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5b021fe13dcae56d252e7321283a3f3b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="841a37d2-6ac6-4cb8-8211-c8824e7b4dcd" xmlns:ns3="c78a888a-83d8-49bb-8890-6eb97e8a3c0e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6d73ac3668dfd0d4084037886131f3a8" ns2:_="" ns3:_="">
     <xsd:import namespace="841a37d2-6ac6-4cb8-8211-c8824e7b4dcd"/>
@@ -2570,27 +2714,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D179259-ADEB-472E-BCEC-BDFC0520E6D5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="c78a888a-83d8-49bb-8890-6eb97e8a3c0e"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="841a37d2-6ac6-4cb8-8211-c8824e7b4dcd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="841a37d2-6ac6-4cb8-8211-c8824e7b4dcd">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="c78a888a-83d8-49bb-8890-6eb97e8a3c0e" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{430C2AD8-4E07-45C4-A973-C4747D59CA6C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F8932A5-BA2D-49E3-999C-ACEA66CAE646}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2607,29 +2756,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{430C2AD8-4E07-45C4-A973-C4747D59CA6C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D179259-ADEB-472E-BCEC-BDFC0520E6D5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="c78a888a-83d8-49bb-8890-6eb97e8a3c0e"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="841a37d2-6ac6-4cb8-8211-c8824e7b4dcd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data/er_ans_costs.xlsx
+++ b/data/er_ans_costs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oburdash\dev\repos\standard_inputs\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02145130-06F4-4E05-9AED-5D2D5EFBE307}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8503F6C6-CF7C-4459-8373-04A59D0CF278}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="coding" sheetId="3" r:id="rId1"/>
@@ -142,10 +142,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -414,7 +410,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -458,22 +454,22 @@
         <v>9</v>
       </c>
       <c r="B2" s="1">
-        <v>6225</v>
+        <v>6904</v>
       </c>
       <c r="C2" s="1">
-        <v>6201</v>
+        <v>6979</v>
       </c>
       <c r="D2" s="1">
-        <v>6167</v>
+        <v>7064</v>
       </c>
       <c r="E2" s="1">
-        <v>6235</v>
+        <v>6852</v>
       </c>
       <c r="F2" s="1">
-        <v>6307</v>
+        <v>6524</v>
       </c>
       <c r="G2" s="1">
-        <v>6136</v>
+        <v>6672</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -481,22 +477,22 @@
         <v>0</v>
       </c>
       <c r="B3" s="1">
-        <v>1247</v>
+        <v>1436</v>
       </c>
       <c r="C3" s="1">
-        <v>1287</v>
+        <v>1504</v>
       </c>
       <c r="D3" s="1">
-        <v>1282</v>
+        <v>1538</v>
       </c>
       <c r="E3" s="1">
-        <v>1348</v>
+        <v>1574</v>
       </c>
       <c r="F3" s="1">
-        <v>1380</v>
+        <v>1423</v>
       </c>
       <c r="G3" s="1">
-        <v>1412</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -504,22 +500,22 @@
         <v>8</v>
       </c>
       <c r="B4" s="1">
-        <v>7472</v>
+        <v>8340</v>
       </c>
       <c r="C4" s="1">
-        <v>7488</v>
+        <v>8483</v>
       </c>
       <c r="D4" s="1">
-        <v>7449</v>
+        <v>8602</v>
       </c>
       <c r="E4" s="1">
-        <v>7583</v>
+        <v>8426</v>
       </c>
       <c r="F4" s="1">
-        <v>7687</v>
+        <v>7947</v>
       </c>
       <c r="G4" s="1">
-        <v>7548</v>
+        <v>8244</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -527,22 +523,22 @@
         <v>9</v>
       </c>
       <c r="B5" s="1">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="C5" s="1">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="D5" s="1">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="E5" s="1">
-        <v>122</v>
+        <v>53</v>
       </c>
       <c r="F5" s="1">
-        <v>125</v>
+        <v>67</v>
       </c>
       <c r="G5" s="1">
-        <v>53</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -550,22 +546,22 @@
         <v>0</v>
       </c>
       <c r="B6" s="1">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C6" s="1">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D6" s="1">
+        <v>36</v>
+      </c>
+      <c r="E6" s="1">
+        <v>16</v>
+      </c>
+      <c r="F6" s="1">
+        <v>20</v>
+      </c>
+      <c r="G6" s="1">
         <v>33</v>
-      </c>
-      <c r="E6" s="1">
-        <v>35</v>
-      </c>
-      <c r="F6" s="1">
-        <v>36</v>
-      </c>
-      <c r="G6" s="1">
-        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -573,22 +569,22 @@
         <v>10</v>
       </c>
       <c r="B7" s="1">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="C7" s="1">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="D7" s="1">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="E7" s="1">
-        <v>157</v>
+        <v>68</v>
       </c>
       <c r="F7" s="1">
-        <v>161</v>
+        <v>87</v>
       </c>
       <c r="G7" s="1">
-        <v>68</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -596,22 +592,22 @@
         <v>9</v>
       </c>
       <c r="B8" s="1">
-        <v>59.4</v>
+        <v>60</v>
       </c>
       <c r="C8" s="1">
-        <v>56.8</v>
+        <v>57</v>
       </c>
       <c r="D8" s="1">
-        <v>53.6</v>
+        <v>56</v>
       </c>
       <c r="E8" s="1">
-        <v>51.2</v>
+        <v>131</v>
       </c>
       <c r="F8" s="1">
-        <v>50.4</v>
+        <v>98</v>
       </c>
       <c r="G8" s="1">
-        <v>116.9</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -619,22 +615,22 @@
         <v>0</v>
       </c>
       <c r="B9" s="1">
-        <v>43.1</v>
+        <v>44</v>
       </c>
       <c r="C9" s="1">
         <v>43</v>
       </c>
       <c r="D9" s="1">
-        <v>39.200000000000003</v>
+        <v>42</v>
       </c>
       <c r="E9" s="1">
-        <v>38.299999999999997</v>
+        <v>100</v>
       </c>
       <c r="F9" s="1">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="G9" s="1">
-        <v>89.5</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -642,22 +638,22 @@
         <v>11</v>
       </c>
       <c r="B10" s="1">
-        <v>55.9</v>
+        <v>56</v>
       </c>
       <c r="C10" s="1">
-        <v>53.8</v>
+        <v>54</v>
       </c>
       <c r="D10" s="1">
-        <v>50.4</v>
+        <v>53</v>
       </c>
       <c r="E10" s="1">
-        <v>48.3</v>
+        <v>123</v>
       </c>
       <c r="F10" s="1">
-        <v>47.6</v>
+        <v>92</v>
       </c>
       <c r="G10" s="1">
-        <v>110.6</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -668,6 +664,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="841a37d2-6ac6-4cb8-8211-c8824e7b4dcd">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="c78a888a-83d8-49bb-8890-6eb97e8a3c0e" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100763DCA751E988E49B18D7A5F3E2E0A59" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5b021fe13dcae56d252e7321283a3f3b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="841a37d2-6ac6-4cb8-8211-c8824e7b4dcd" xmlns:ns3="c78a888a-83d8-49bb-8890-6eb97e8a3c0e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6d73ac3668dfd0d4084037886131f3a8" ns2:_="" ns3:_="">
     <xsd:import namespace="841a37d2-6ac6-4cb8-8211-c8824e7b4dcd"/>
@@ -910,27 +926,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D179259-ADEB-472E-BCEC-BDFC0520E6D5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="c78a888a-83d8-49bb-8890-6eb97e8a3c0e"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="841a37d2-6ac6-4cb8-8211-c8824e7b4dcd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="841a37d2-6ac6-4cb8-8211-c8824e7b4dcd">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="c78a888a-83d8-49bb-8890-6eb97e8a3c0e" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{430C2AD8-4E07-45C4-A973-C4747D59CA6C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F8932A5-BA2D-49E3-999C-ACEA66CAE646}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -947,29 +968,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{430C2AD8-4E07-45C4-A973-C4747D59CA6C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D179259-ADEB-472E-BCEC-BDFC0520E6D5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="c78a888a-83d8-49bb-8890-6eb97e8a3c0e"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="841a37d2-6ac6-4cb8-8211-c8824e7b4dcd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>